--- a/results/mp/tinybert/corona/confidence/84/topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,88 +52,103 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>you</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7467532467532467</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3819742489270386</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D5">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2441860465116279</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,69 +743,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="M6">
+        <v>94</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2125</v>
-      </c>
-      <c r="C7">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,45 +793,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>116</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,21 +819,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.803921568627451</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,21 +845,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8035714285714286</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,21 +871,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,21 +897,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,21 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,21 +975,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7123287671232876</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,47 +1079,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1190,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5774647887323944</v>
+        <v>0.5352480417754569</v>
       </c>
       <c r="L22">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5277777777777778</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L23">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4571428571428571</v>
+        <v>0.4610169491525424</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4418604651162791</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,33 +1287,215 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3514644351464435</v>
+      </c>
+      <c r="L28">
+        <v>84</v>
+      </c>
+      <c r="M28">
+        <v>84</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K27">
-        <v>0.0124777183600713</v>
-      </c>
-      <c r="L27">
-        <v>14</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
+      <c r="K29">
+        <v>0.02416666666666667</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.01215521271622253</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>0.87</v>
+      </c>
+      <c r="O30">
+        <v>0.13</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01086549269389284</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.007626531083891842</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>34</v>
+      </c>
+      <c r="N32">
+        <v>0.97</v>
+      </c>
+      <c r="O32">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.007410374524334067</v>
+      </c>
+      <c r="L33">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
         <v>0.93</v>
       </c>
-      <c r="O27">
+      <c r="O33">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1108</v>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.00562015503875969</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>0.85</v>
+      </c>
+      <c r="O34">
+        <v>0.15</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
